--- a/londata.xlsx
+++ b/londata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="240">
   <si>
     <t>Placering</t>
   </si>
@@ -39,43 +39,22 @@
     <t>Mejeribrugsvidenskab, cand.lact.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.241.446 </t>
-  </si>
-  <si>
     <t>Finansiering, HD-2.del (CBS)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.187.618 </t>
-  </si>
-  <si>
     <t>Forsikringsvidenskab, cand.act.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.180.098 </t>
-  </si>
-  <si>
     <t>Business administration (MBA), master (CBS)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.066.450 </t>
-  </si>
-  <si>
     <t>Statsvidenskab, cand.polit.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.052.373 </t>
-  </si>
-  <si>
     <t>Business administration (MBA), master</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.049.550 </t>
-  </si>
-  <si>
     <t>Revisorkandidat, cand.merc.aud. (CBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.028.705 </t>
   </si>
   <si>
     <t>Ledelsesudvikling, master (CBS)</t>
@@ -798,10 +777,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1081,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1105,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1115,14 +1095,14 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>263</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3">
+        <v>1241446</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1130,16 +1110,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1187618</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1147,19 +1127,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>278</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="3">
+        <v>1180098</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" t="s">
         <v>228</v>
-      </c>
-      <c r="G4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1167,16 +1147,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
         <v>674</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5" s="3">
+        <v>1066450</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1184,19 +1164,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2.968</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2968</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1052373</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1204,16 +1184,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
         <v>358</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7" s="3">
+        <v>1049550</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1221,16 +1201,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>3.0350000000000001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3035</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1028705</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1238,16 +1218,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
         <v>90</v>
       </c>
-      <c r="D9">
-        <v>987.47799999999995</v>
+      <c r="D9" s="3">
+        <v>987478</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1255,16 +1235,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>371</v>
       </c>
-      <c r="D10">
-        <v>955.48400000000004</v>
+      <c r="D10" s="3">
+        <v>955484</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1272,16 +1252,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="D11">
-        <v>946.49400000000003</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1068</v>
+      </c>
+      <c r="D11" s="3">
+        <v>946494</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1289,16 +1269,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
         <v>611</v>
       </c>
-      <c r="D12">
-        <v>946.01400000000001</v>
+      <c r="D12" s="3">
+        <v>946014</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1306,16 +1286,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>2.29</v>
-      </c>
-      <c r="D13">
-        <v>943.19500000000005</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2290</v>
+      </c>
+      <c r="D13" s="3">
+        <v>943195</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1323,19 +1303,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>15.211</v>
-      </c>
-      <c r="D14">
-        <v>926.24400000000003</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>15211</v>
+      </c>
+      <c r="D14" s="3">
+        <v>926244</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1343,19 +1323,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
         <v>724</v>
       </c>
-      <c r="D15">
-        <v>909.82299999999998</v>
+      <c r="D15" s="3">
+        <v>909823</v>
       </c>
       <c r="F15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" t="s">
         <v>228</v>
-      </c>
-      <c r="G15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1363,16 +1343,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
         <v>572</v>
       </c>
-      <c r="D16">
-        <v>889.13900000000001</v>
+      <c r="D16" s="3">
+        <v>889139</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1380,16 +1360,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
         <v>169</v>
       </c>
-      <c r="D17">
-        <v>868.76499999999999</v>
+      <c r="D17" s="3">
+        <v>868765</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1397,16 +1377,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>857.03499999999997</v>
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>857035</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1414,13 +1394,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="D19">
-        <v>853.61900000000003</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2393</v>
+      </c>
+      <c r="D19" s="3">
+        <v>853619</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1428,19 +1408,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>15.962</v>
-      </c>
-      <c r="D20">
-        <v>849.60199999999998</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15962</v>
+      </c>
+      <c r="D20" s="3">
+        <v>849602</v>
       </c>
       <c r="F20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1448,19 +1428,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
         <v>475</v>
       </c>
-      <c r="D21">
-        <v>847.59400000000005</v>
+      <c r="D21" s="3">
+        <v>847594</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1468,16 +1448,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
         <v>287</v>
       </c>
-      <c r="D22">
-        <v>838.85799999999995</v>
+      <c r="D22" s="3">
+        <v>838858</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1485,16 +1465,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="D23">
-        <v>831.79300000000001</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3686</v>
+      </c>
+      <c r="D23" s="3">
+        <v>831793</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1502,16 +1482,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
         <v>336</v>
       </c>
-      <c r="D24">
-        <v>824.47199999999998</v>
+      <c r="D24" s="3">
+        <v>824472</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1519,19 +1499,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>5.0460000000000003</v>
-      </c>
-      <c r="D25">
-        <v>809.79100000000005</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5046</v>
+      </c>
+      <c r="D25" s="3">
+        <v>809791</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1539,19 +1519,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>4.0460000000000003</v>
-      </c>
-      <c r="D26">
-        <v>805.75699999999995</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4046</v>
+      </c>
+      <c r="D26" s="3">
+        <v>805757</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1559,19 +1539,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="D27">
-        <v>801.15599999999995</v>
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1378</v>
+      </c>
+      <c r="D27" s="3">
+        <v>801156</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1579,13 +1559,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
         <v>262</v>
       </c>
-      <c r="D28">
-        <v>796.8</v>
+      <c r="D28" s="3">
+        <v>796800</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1593,13 +1573,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
         <v>881</v>
       </c>
-      <c r="D29">
-        <v>792.85</v>
+      <c r="D29" s="3">
+        <v>792850</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1607,13 +1587,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
         <v>46</v>
       </c>
-      <c r="D30">
-        <v>786.43299999999999</v>
+      <c r="D30" s="3">
+        <v>786433</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1621,19 +1601,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>11.412000000000001</v>
-      </c>
-      <c r="D31">
-        <v>775.36500000000001</v>
+        <v>33</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11412</v>
+      </c>
+      <c r="D31" s="3">
+        <v>775365</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1641,19 +1621,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
         <v>493</v>
       </c>
-      <c r="D32">
-        <v>769.92899999999997</v>
+      <c r="D32" s="3">
+        <v>769929</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1661,19 +1641,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>3.17</v>
-      </c>
-      <c r="D33">
-        <v>762.13499999999999</v>
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3170</v>
+      </c>
+      <c r="D33" s="3">
+        <v>762135</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1681,19 +1661,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>3.7240000000000002</v>
-      </c>
-      <c r="D34">
-        <v>761.43899999999996</v>
+        <v>36</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3724</v>
+      </c>
+      <c r="D34" s="3">
+        <v>761439</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1701,19 +1681,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>1.032</v>
-      </c>
-      <c r="D35">
-        <v>755.89800000000002</v>
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1032</v>
+      </c>
+      <c r="D35" s="3">
+        <v>755898</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1721,16 +1701,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>3.423</v>
-      </c>
-      <c r="D36">
-        <v>751.32500000000005</v>
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3423</v>
+      </c>
+      <c r="D36" s="3">
+        <v>751325</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1738,19 +1718,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
         <v>771</v>
       </c>
-      <c r="D37">
-        <v>747.053</v>
+      <c r="D37" s="3">
+        <v>747053</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1758,16 +1738,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3">
         <v>87</v>
       </c>
-      <c r="D38">
-        <v>745.95</v>
+      <c r="D38" s="3">
+        <v>745950</v>
       </c>
       <c r="F38" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1775,16 +1755,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
         <v>134</v>
       </c>
-      <c r="D39">
-        <v>737.51199999999994</v>
+      <c r="D39" s="3">
+        <v>737512</v>
       </c>
       <c r="F39" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1792,19 +1772,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40">
-        <v>10.237</v>
-      </c>
-      <c r="D40">
-        <v>731.976</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10237</v>
+      </c>
+      <c r="D40" s="3">
+        <v>731976</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1812,16 +1792,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
         <v>686</v>
       </c>
-      <c r="D41">
-        <v>722.44399999999996</v>
+      <c r="D41" s="3">
+        <v>722444</v>
       </c>
       <c r="F41" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1829,19 +1809,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42">
-        <v>2.883</v>
-      </c>
-      <c r="D42">
-        <v>713.56500000000005</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2883</v>
+      </c>
+      <c r="D42" s="3">
+        <v>713565</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1849,19 +1829,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="D43">
-        <v>706.36800000000005</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2223</v>
+      </c>
+      <c r="D43" s="3">
+        <v>706368</v>
       </c>
       <c r="F43" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" t="s">
         <v>228</v>
-      </c>
-      <c r="G43" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1869,19 +1849,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3">
         <v>512</v>
       </c>
-      <c r="D44">
-        <v>701.78899999999999</v>
+      <c r="D44" s="3">
+        <v>701789</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1889,19 +1869,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
         <v>480</v>
       </c>
-      <c r="D45">
-        <v>690.62599999999998</v>
+      <c r="D45" s="3">
+        <v>690626</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1909,19 +1889,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46">
-        <v>7.0789999999999997</v>
-      </c>
-      <c r="D46">
-        <v>688.27700000000004</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7079</v>
+      </c>
+      <c r="D46" s="3">
+        <v>688277</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1929,16 +1909,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3">
         <v>268</v>
       </c>
-      <c r="D47">
-        <v>684.06600000000003</v>
+      <c r="D47" s="3">
+        <v>684066</v>
       </c>
       <c r="F47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1946,19 +1926,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3">
         <v>556</v>
       </c>
-      <c r="D48">
-        <v>682.34900000000005</v>
+      <c r="D48" s="3">
+        <v>682349</v>
       </c>
       <c r="F48" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1966,19 +1946,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49">
-        <v>4.7720000000000002</v>
-      </c>
-      <c r="D49">
-        <v>673.928</v>
+        <v>51</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4772</v>
+      </c>
+      <c r="D49" s="3">
+        <v>673928</v>
       </c>
       <c r="F49" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1986,16 +1966,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3">
         <v>43</v>
       </c>
-      <c r="D50">
-        <v>670.36199999999997</v>
+      <c r="D50" s="3">
+        <v>670362</v>
       </c>
       <c r="F50" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2003,19 +1983,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3">
         <v>940</v>
       </c>
-      <c r="D51">
-        <v>663.85900000000004</v>
+      <c r="D51" s="3">
+        <v>663859</v>
       </c>
       <c r="F51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G51" t="s">
         <v>228</v>
-      </c>
-      <c r="G51" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2023,16 +2003,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3">
         <v>160</v>
       </c>
-      <c r="D52">
-        <v>655.52099999999996</v>
+      <c r="D52" s="3">
+        <v>655521</v>
       </c>
       <c r="F52" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2040,16 +2020,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53">
+        <v>55</v>
+      </c>
+      <c r="C53" s="3">
         <v>300</v>
       </c>
-      <c r="D53">
-        <v>646.95299999999997</v>
+      <c r="D53" s="3">
+        <v>646953</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2057,16 +2037,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54">
+        <v>56</v>
+      </c>
+      <c r="C54" s="3">
         <v>399</v>
       </c>
-      <c r="D54">
-        <v>642.5</v>
+      <c r="D54" s="3">
+        <v>642500</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2074,19 +2054,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55">
+        <v>57</v>
+      </c>
+      <c r="C55" s="3">
         <v>907</v>
       </c>
-      <c r="D55">
-        <v>642.43899999999996</v>
+      <c r="D55" s="3">
+        <v>642439</v>
       </c>
       <c r="F55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" t="s">
         <v>228</v>
-      </c>
-      <c r="G55" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2094,16 +2074,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3">
         <v>564</v>
       </c>
-      <c r="D56">
-        <v>640.15899999999999</v>
+      <c r="D56" s="3">
+        <v>640159</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2111,16 +2091,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="D57">
-        <v>638.25699999999995</v>
+        <v>59</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1324</v>
+      </c>
+      <c r="D57" s="3">
+        <v>638257</v>
       </c>
       <c r="F57" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2128,19 +2108,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="D58">
-        <v>635.39700000000005</v>
+        <v>60</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1025</v>
+      </c>
+      <c r="D58" s="3">
+        <v>635397</v>
       </c>
       <c r="F58" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2148,19 +2128,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3">
         <v>936</v>
       </c>
-      <c r="D59">
-        <v>632.41099999999994</v>
+      <c r="D59" s="3">
+        <v>632411</v>
       </c>
       <c r="F59" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2168,16 +2148,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3">
         <v>490</v>
       </c>
-      <c r="D60">
-        <v>631.41499999999996</v>
+      <c r="D60" s="3">
+        <v>631415</v>
       </c>
       <c r="F60" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2185,19 +2165,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61">
-        <v>2.367</v>
-      </c>
-      <c r="D61">
-        <v>629.43799999999999</v>
+        <v>63</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2367</v>
+      </c>
+      <c r="D61" s="3">
+        <v>629438</v>
       </c>
       <c r="F61" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2205,16 +2185,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62">
+        <v>64</v>
+      </c>
+      <c r="C62" s="3">
         <v>737</v>
       </c>
-      <c r="D62">
-        <v>629.255</v>
+      <c r="D62" s="3">
+        <v>629255</v>
       </c>
       <c r="G62" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2222,19 +2202,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63">
+        <v>65</v>
+      </c>
+      <c r="C63" s="3">
         <v>256</v>
       </c>
-      <c r="D63">
-        <v>627.14499999999998</v>
+      <c r="D63" s="3">
+        <v>627145</v>
       </c>
       <c r="F63" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2242,19 +2222,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64">
+        <v>66</v>
+      </c>
+      <c r="C64" s="3">
         <v>272</v>
       </c>
-      <c r="D64">
-        <v>626.21299999999997</v>
+      <c r="D64" s="3">
+        <v>626213</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G64" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2262,16 +2242,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65">
+        <v>67</v>
+      </c>
+      <c r="C65" s="3">
         <v>25</v>
       </c>
-      <c r="D65">
-        <v>621.42999999999995</v>
+      <c r="D65" s="3">
+        <v>621430</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2279,19 +2259,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66">
+        <v>68</v>
+      </c>
+      <c r="C66" s="3">
         <v>842</v>
       </c>
-      <c r="D66">
-        <v>619.44299999999998</v>
+      <c r="D66" s="3">
+        <v>619443</v>
       </c>
       <c r="F66" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2299,19 +2279,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67">
+        <v>69</v>
+      </c>
+      <c r="C67" s="3">
         <v>867</v>
       </c>
-      <c r="D67">
-        <v>613.53899999999999</v>
+      <c r="D67" s="3">
+        <v>613539</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2319,16 +2299,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3">
         <v>471</v>
       </c>
-      <c r="D68">
-        <v>613.5</v>
+      <c r="D68" s="3">
+        <v>613500</v>
       </c>
       <c r="F68" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2336,19 +2316,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69">
+        <v>71</v>
+      </c>
+      <c r="C69" s="3">
         <v>900</v>
       </c>
-      <c r="D69">
-        <v>611.00800000000004</v>
+      <c r="D69" s="3">
+        <v>611008</v>
       </c>
       <c r="F69" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2356,19 +2336,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3">
         <v>721</v>
       </c>
-      <c r="D70">
-        <v>607.67100000000005</v>
+      <c r="D70" s="3">
+        <v>607671</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2376,19 +2356,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71">
+        <v>73</v>
+      </c>
+      <c r="C71" s="3">
         <v>420</v>
       </c>
-      <c r="D71">
-        <v>605.55799999999999</v>
+      <c r="D71" s="3">
+        <v>605558</v>
       </c>
       <c r="F71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" t="s">
         <v>228</v>
-      </c>
-      <c r="G71" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2396,19 +2376,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72">
-        <v>2.4039999999999999</v>
-      </c>
-      <c r="D72">
-        <v>605.41899999999998</v>
+        <v>74</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2404</v>
+      </c>
+      <c r="D72" s="3">
+        <v>605419</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2416,19 +2396,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="D73">
-        <v>603.84</v>
+        <v>75</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1265</v>
+      </c>
+      <c r="D73" s="3">
+        <v>603840</v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2436,19 +2416,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74">
+        <v>76</v>
+      </c>
+      <c r="C74" s="3">
         <v>396</v>
       </c>
-      <c r="D74">
-        <v>600.327</v>
+      <c r="D74" s="3">
+        <v>600327</v>
       </c>
       <c r="F74" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2456,19 +2436,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75">
+        <v>77</v>
+      </c>
+      <c r="C75" s="3">
         <v>565</v>
       </c>
-      <c r="D75">
-        <v>599.55799999999999</v>
+      <c r="D75" s="3">
+        <v>599558</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G75" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2476,19 +2456,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76">
+        <v>78</v>
+      </c>
+      <c r="C76" s="3">
         <v>536</v>
       </c>
-      <c r="D76">
-        <v>597.81700000000001</v>
+      <c r="D76" s="3">
+        <v>597817</v>
       </c>
       <c r="F76" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G76" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2496,16 +2476,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77">
+        <v>79</v>
+      </c>
+      <c r="C77" s="3">
         <v>406</v>
       </c>
-      <c r="D77">
-        <v>596.25599999999997</v>
+      <c r="D77" s="3">
+        <v>596256</v>
       </c>
       <c r="F77" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2513,19 +2493,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78">
+        <v>80</v>
+      </c>
+      <c r="C78" s="3">
         <v>527</v>
       </c>
-      <c r="D78">
-        <v>592.78399999999999</v>
+      <c r="D78" s="3">
+        <v>592784</v>
       </c>
       <c r="F78" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2533,16 +2513,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79">
+        <v>81</v>
+      </c>
+      <c r="C79" s="3">
         <v>20</v>
       </c>
-      <c r="D79">
-        <v>591.41499999999996</v>
+      <c r="D79" s="3">
+        <v>591415</v>
       </c>
       <c r="G79" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2550,16 +2530,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80">
-        <v>2.1539999999999999</v>
-      </c>
-      <c r="D80">
-        <v>581.61800000000005</v>
+        <v>82</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2154</v>
+      </c>
+      <c r="D80" s="3">
+        <v>581618</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2567,16 +2547,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81">
+        <v>83</v>
+      </c>
+      <c r="C81" s="3">
         <v>748</v>
       </c>
-      <c r="D81">
-        <v>580.98099999999999</v>
+      <c r="D81" s="3">
+        <v>580981</v>
       </c>
       <c r="G81" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2584,16 +2564,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82">
-        <v>1.708</v>
-      </c>
-      <c r="D82">
-        <v>580.65200000000004</v>
+        <v>84</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1708</v>
+      </c>
+      <c r="D82" s="3">
+        <v>580652</v>
       </c>
       <c r="F82" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2601,16 +2581,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83">
+        <v>85</v>
+      </c>
+      <c r="C83" s="3">
         <v>560</v>
       </c>
-      <c r="D83">
-        <v>578.61300000000006</v>
+      <c r="D83" s="3">
+        <v>578613</v>
       </c>
       <c r="G83" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2618,16 +2598,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="D84">
-        <v>569.75199999999995</v>
+        <v>86</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1067</v>
+      </c>
+      <c r="D84" s="3">
+        <v>569752</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2635,16 +2615,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85">
+        <v>87</v>
+      </c>
+      <c r="C85" s="3">
         <v>443</v>
       </c>
-      <c r="D85">
-        <v>563.79999999999995</v>
+      <c r="D85" s="3">
+        <v>563800</v>
       </c>
       <c r="G85" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,16 +2632,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86">
+        <v>88</v>
+      </c>
+      <c r="C86" s="3">
         <v>111</v>
       </c>
-      <c r="D86">
-        <v>558.84799999999996</v>
+      <c r="D86" s="3">
+        <v>558848</v>
       </c>
       <c r="G86" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2669,16 +2649,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87">
+        <v>89</v>
+      </c>
+      <c r="C87" s="3">
         <v>13</v>
       </c>
-      <c r="D87">
-        <v>556.755</v>
+      <c r="D87" s="3">
+        <v>556755</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2686,16 +2666,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3">
         <v>437</v>
       </c>
-      <c r="D88">
-        <v>551.67100000000005</v>
+      <c r="D88" s="3">
+        <v>551671</v>
       </c>
       <c r="G88" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2703,13 +2683,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89">
+        <v>91</v>
+      </c>
+      <c r="C89" s="3">
         <v>517</v>
       </c>
-      <c r="D89">
-        <v>550.32500000000005</v>
+      <c r="D89" s="3">
+        <v>550325</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2717,16 +2697,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90">
+        <v>92</v>
+      </c>
+      <c r="C90" s="3">
         <v>662</v>
       </c>
-      <c r="D90">
-        <v>549.93200000000002</v>
+      <c r="D90" s="3">
+        <v>549932</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2734,16 +2714,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91">
+        <v>93</v>
+      </c>
+      <c r="C91" s="3">
         <v>10</v>
       </c>
-      <c r="D91">
-        <v>546.04899999999998</v>
+      <c r="D91" s="3">
+        <v>546049</v>
       </c>
       <c r="G91" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2751,16 +2731,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92">
-        <v>3.81</v>
-      </c>
-      <c r="D92">
-        <v>542.28800000000001</v>
+        <v>94</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3810</v>
+      </c>
+      <c r="D92" s="3">
+        <v>542288</v>
       </c>
       <c r="G92" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2768,16 +2748,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93">
+        <v>95</v>
+      </c>
+      <c r="C93" s="3">
         <v>28</v>
       </c>
-      <c r="D93">
-        <v>525.274</v>
+      <c r="D93" s="3">
+        <v>525274</v>
       </c>
       <c r="G93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2785,16 +2765,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94">
+        <v>96</v>
+      </c>
+      <c r="C94" s="3">
         <v>513</v>
       </c>
-      <c r="D94">
-        <v>524.32299999999998</v>
+      <c r="D94" s="3">
+        <v>524323</v>
       </c>
       <c r="G94" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2802,16 +2782,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95">
+        <v>97</v>
+      </c>
+      <c r="C95" s="3">
         <v>59</v>
       </c>
-      <c r="D95">
-        <v>522.08000000000004</v>
+      <c r="D95" s="3">
+        <v>522080</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2819,16 +2799,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96">
+        <v>98</v>
+      </c>
+      <c r="C96" s="3">
         <v>143</v>
       </c>
-      <c r="D96">
-        <v>520.85199999999998</v>
+      <c r="D96" s="3">
+        <v>520852</v>
       </c>
       <c r="G96" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2836,16 +2816,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97">
-        <v>5.53</v>
-      </c>
-      <c r="D97">
-        <v>520.80999999999995</v>
+        <v>99</v>
+      </c>
+      <c r="C97" s="3">
+        <v>5530</v>
+      </c>
+      <c r="D97" s="3">
+        <v>520810</v>
       </c>
       <c r="G97" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2853,16 +2833,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="C98" s="3">
         <v>280</v>
       </c>
-      <c r="D98">
-        <v>518.00300000000004</v>
+      <c r="D98" s="3">
+        <v>518003</v>
       </c>
       <c r="G98" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2870,16 +2850,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99">
+        <v>101</v>
+      </c>
+      <c r="C99" s="3">
         <v>137</v>
       </c>
-      <c r="D99">
-        <v>517.50300000000004</v>
+      <c r="D99" s="3">
+        <v>517503</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2887,16 +2867,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100">
+        <v>102</v>
+      </c>
+      <c r="C100" s="3">
         <v>198</v>
       </c>
-      <c r="D100">
-        <v>516.27499999999998</v>
+      <c r="D100" s="3">
+        <v>516275</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2904,16 +2884,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101">
+        <v>103</v>
+      </c>
+      <c r="C101" s="3">
         <v>812</v>
       </c>
-      <c r="D101">
-        <v>512.94899999999996</v>
+      <c r="D101" s="3">
+        <v>512949</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2921,16 +2901,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102">
+        <v>104</v>
+      </c>
+      <c r="C102" s="3">
         <v>340</v>
       </c>
-      <c r="D102">
-        <v>512.46400000000006</v>
+      <c r="D102" s="3">
+        <v>512464</v>
       </c>
       <c r="G102" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2938,16 +2918,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103">
+        <v>105</v>
+      </c>
+      <c r="C103" s="3">
         <v>554</v>
       </c>
-      <c r="D103">
-        <v>511.41199999999998</v>
+      <c r="D103" s="3">
+        <v>511412</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2955,13 +2935,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104">
+        <v>106</v>
+      </c>
+      <c r="C104" s="3">
         <v>128</v>
       </c>
-      <c r="D104">
-        <v>510.56099999999998</v>
+      <c r="D104" s="3">
+        <v>510561</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2969,16 +2949,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105">
+        <v>107</v>
+      </c>
+      <c r="C105" s="3">
         <v>259</v>
       </c>
-      <c r="D105">
-        <v>510.51400000000001</v>
+      <c r="D105" s="3">
+        <v>510514</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2986,16 +2966,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106">
+        <v>108</v>
+      </c>
+      <c r="C106" s="3">
         <v>41</v>
       </c>
-      <c r="D106">
-        <v>507.55</v>
+      <c r="D106" s="3">
+        <v>507550</v>
       </c>
       <c r="G106" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3003,16 +2983,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107">
-        <v>3.5550000000000002</v>
-      </c>
-      <c r="D107">
-        <v>505.35</v>
+        <v>109</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3555</v>
+      </c>
+      <c r="D107" s="3">
+        <v>505350</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3020,16 +3000,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108">
+        <v>110</v>
+      </c>
+      <c r="C108" s="3">
         <v>973</v>
       </c>
-      <c r="D108">
-        <v>505.08100000000002</v>
+      <c r="D108" s="3">
+        <v>505081</v>
       </c>
       <c r="G108" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3037,16 +3017,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109">
+        <v>111</v>
+      </c>
+      <c r="C109" s="3">
         <v>307</v>
       </c>
-      <c r="D109">
-        <v>500.46499999999997</v>
+      <c r="D109" s="3">
+        <v>500465</v>
       </c>
       <c r="G109" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3054,16 +3034,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110">
+        <v>112</v>
+      </c>
+      <c r="C110" s="3">
         <v>269</v>
       </c>
-      <c r="D110">
-        <v>497.91800000000001</v>
+      <c r="D110" s="3">
+        <v>497918</v>
       </c>
       <c r="G110" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3071,16 +3051,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111">
+        <v>113</v>
+      </c>
+      <c r="C111" s="3">
         <v>94</v>
       </c>
-      <c r="D111">
-        <v>496.60399999999998</v>
+      <c r="D111" s="3">
+        <v>496604</v>
       </c>
       <c r="G111" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3088,16 +3068,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
-      </c>
-      <c r="C112">
+        <v>114</v>
+      </c>
+      <c r="C112" s="3">
         <v>906</v>
       </c>
-      <c r="D112">
-        <v>492.98099999999999</v>
+      <c r="D112" s="3">
+        <v>492981</v>
       </c>
       <c r="G112" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3105,16 +3085,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113">
+        <v>115</v>
+      </c>
+      <c r="C113" s="3">
         <v>858</v>
       </c>
-      <c r="D113">
-        <v>490.57799999999997</v>
+      <c r="D113" s="3">
+        <v>490578</v>
       </c>
       <c r="G113" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3122,16 +3102,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114">
+        <v>116</v>
+      </c>
+      <c r="C114" s="3">
         <v>374</v>
       </c>
-      <c r="D114">
-        <v>489.58100000000002</v>
+      <c r="D114" s="3">
+        <v>489581</v>
       </c>
       <c r="G114" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3139,16 +3119,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115">
+        <v>117</v>
+      </c>
+      <c r="C115" s="3">
         <v>535</v>
       </c>
-      <c r="D115">
-        <v>488.94499999999999</v>
+      <c r="D115" s="3">
+        <v>488945</v>
       </c>
       <c r="G115" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3156,16 +3136,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
-      </c>
-      <c r="C116">
-        <v>5.9820000000000002</v>
-      </c>
-      <c r="D116">
-        <v>488.69400000000002</v>
+        <v>118</v>
+      </c>
+      <c r="C116" s="3">
+        <v>5982</v>
+      </c>
+      <c r="D116" s="3">
+        <v>488694</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3173,16 +3153,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117">
+        <v>119</v>
+      </c>
+      <c r="C117" s="3">
         <v>444</v>
       </c>
-      <c r="D117">
-        <v>488.137</v>
+      <c r="D117" s="3">
+        <v>488137</v>
       </c>
       <c r="G117" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3190,16 +3170,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118">
-        <v>2.9390000000000001</v>
-      </c>
-      <c r="D118">
-        <v>488.11599999999999</v>
+        <v>120</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2939</v>
+      </c>
+      <c r="D118" s="3">
+        <v>488116</v>
       </c>
       <c r="G118" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3207,16 +3187,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119">
+        <v>121</v>
+      </c>
+      <c r="C119" s="3">
         <v>334</v>
       </c>
-      <c r="D119">
-        <v>485.75200000000001</v>
+      <c r="D119" s="3">
+        <v>485752</v>
       </c>
       <c r="G119" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3224,16 +3204,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120">
+        <v>122</v>
+      </c>
+      <c r="C120" s="3">
         <v>346</v>
       </c>
-      <c r="D120">
-        <v>484.76799999999997</v>
+      <c r="D120" s="3">
+        <v>484768</v>
       </c>
       <c r="G120" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3241,16 +3221,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
-      </c>
-      <c r="C121">
+        <v>123</v>
+      </c>
+      <c r="C121" s="3">
         <v>112</v>
       </c>
-      <c r="D121">
-        <v>484.33</v>
+      <c r="D121" s="3">
+        <v>484330</v>
       </c>
       <c r="G121" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3258,16 +3238,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
-      </c>
-      <c r="C122">
+        <v>124</v>
+      </c>
+      <c r="C122" s="3">
         <v>430</v>
       </c>
-      <c r="D122">
-        <v>484.00900000000001</v>
+      <c r="D122" s="3">
+        <v>484009</v>
       </c>
       <c r="G122" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3275,16 +3255,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123">
+        <v>125</v>
+      </c>
+      <c r="C123" s="3">
         <v>500</v>
       </c>
-      <c r="D123">
-        <v>483.40499999999997</v>
+      <c r="D123" s="3">
+        <v>483405</v>
       </c>
       <c r="G123" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3292,16 +3272,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="D124">
-        <v>482.17899999999997</v>
+        <v>126</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2864</v>
+      </c>
+      <c r="D124" s="3">
+        <v>482179</v>
       </c>
       <c r="G124" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3309,16 +3289,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125">
+        <v>127</v>
+      </c>
+      <c r="C125" s="3">
         <v>346</v>
       </c>
-      <c r="D125">
-        <v>481.37799999999999</v>
+      <c r="D125" s="3">
+        <v>481378</v>
       </c>
       <c r="G125" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3326,16 +3306,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126">
+        <v>128</v>
+      </c>
+      <c r="C126" s="3">
         <v>831</v>
       </c>
-      <c r="D126">
-        <v>480.70600000000002</v>
+      <c r="D126" s="3">
+        <v>480706</v>
       </c>
       <c r="G126" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3343,16 +3323,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127">
+        <v>129</v>
+      </c>
+      <c r="C127" s="3">
         <v>11</v>
       </c>
-      <c r="D127">
-        <v>479.976</v>
+      <c r="D127" s="3">
+        <v>479976</v>
       </c>
       <c r="G127" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3360,16 +3340,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128">
+        <v>130</v>
+      </c>
+      <c r="C128" s="3">
         <v>439</v>
       </c>
-      <c r="D128">
-        <v>474.04500000000002</v>
+      <c r="D128" s="3">
+        <v>474045</v>
       </c>
       <c r="G128" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3377,16 +3357,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129">
+        <v>131</v>
+      </c>
+      <c r="C129" s="3">
         <v>14</v>
       </c>
-      <c r="D129">
-        <v>472.20600000000002</v>
+      <c r="D129" s="3">
+        <v>472206</v>
       </c>
       <c r="G129" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3394,16 +3374,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130">
+        <v>132</v>
+      </c>
+      <c r="C130" s="3">
         <v>12</v>
       </c>
-      <c r="D130">
-        <v>472.13900000000001</v>
+      <c r="D130" s="3">
+        <v>472139</v>
       </c>
       <c r="G130" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3411,16 +3391,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131">
+        <v>133</v>
+      </c>
+      <c r="C131" s="3">
         <v>878</v>
       </c>
-      <c r="D131">
-        <v>471.34199999999998</v>
+      <c r="D131" s="3">
+        <v>471342</v>
       </c>
       <c r="G131" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,16 +3408,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132">
-        <v>2.9689999999999999</v>
-      </c>
-      <c r="D132">
-        <v>471.23700000000002</v>
+        <v>134</v>
+      </c>
+      <c r="C132" s="3">
+        <v>2969</v>
+      </c>
+      <c r="D132" s="3">
+        <v>471237</v>
       </c>
       <c r="G132" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3445,13 +3425,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133">
+        <v>135</v>
+      </c>
+      <c r="C133" s="3">
         <v>78</v>
       </c>
-      <c r="D133">
-        <v>468.81299999999999</v>
+      <c r="D133" s="3">
+        <v>468813</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3459,16 +3439,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134">
+        <v>136</v>
+      </c>
+      <c r="C134" s="3">
         <v>427</v>
       </c>
-      <c r="D134">
-        <v>468.334</v>
+      <c r="D134" s="3">
+        <v>468334</v>
       </c>
       <c r="G134" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3476,16 +3456,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135">
+        <v>137</v>
+      </c>
+      <c r="C135" s="3">
         <v>424</v>
       </c>
-      <c r="D135">
-        <v>466.34300000000002</v>
+      <c r="D135" s="3">
+        <v>466343</v>
       </c>
       <c r="G135" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3493,16 +3473,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
-      </c>
-      <c r="C136">
+        <v>138</v>
+      </c>
+      <c r="C136" s="3">
         <v>636</v>
       </c>
-      <c r="D136">
-        <v>465.55599999999998</v>
+      <c r="D136" s="3">
+        <v>465556</v>
       </c>
       <c r="G136" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3510,16 +3490,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
-      </c>
-      <c r="C137">
+        <v>139</v>
+      </c>
+      <c r="C137" s="3">
         <v>966</v>
       </c>
-      <c r="D137">
-        <v>461.51100000000002</v>
+      <c r="D137" s="3">
+        <v>461511</v>
       </c>
       <c r="G137" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3527,16 +3507,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
-      </c>
-      <c r="C138">
+        <v>140</v>
+      </c>
+      <c r="C138" s="3">
         <v>53</v>
       </c>
-      <c r="D138">
-        <v>461.00799999999998</v>
+      <c r="D138" s="3">
+        <v>461008</v>
       </c>
       <c r="G138" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3544,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139">
+        <v>141</v>
+      </c>
+      <c r="C139" s="3">
         <v>150</v>
       </c>
-      <c r="D139">
-        <v>458.46</v>
+      <c r="D139" s="3">
+        <v>458460</v>
       </c>
       <c r="G139" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3561,16 +3541,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
-      </c>
-      <c r="C140">
+        <v>142</v>
+      </c>
+      <c r="C140" s="3">
         <v>260</v>
       </c>
-      <c r="D140">
-        <v>457.774</v>
+      <c r="D140" s="3">
+        <v>457774</v>
       </c>
       <c r="G140" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3578,16 +3558,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141">
+        <v>143</v>
+      </c>
+      <c r="C141" s="3">
         <v>668</v>
       </c>
-      <c r="D141">
-        <v>456.10700000000003</v>
+      <c r="D141" s="3">
+        <v>456107</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3595,16 +3575,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
-      </c>
-      <c r="C142">
-        <v>1.107</v>
-      </c>
-      <c r="D142">
-        <v>455.09800000000001</v>
+        <v>144</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1107</v>
+      </c>
+      <c r="D142" s="3">
+        <v>455098</v>
       </c>
       <c r="G142" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3612,16 +3592,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143">
+        <v>145</v>
+      </c>
+      <c r="C143" s="3">
         <v>26</v>
       </c>
-      <c r="D143">
-        <v>454.93799999999999</v>
+      <c r="D143" s="3">
+        <v>454938</v>
       </c>
       <c r="G143" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3629,16 +3609,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144">
+        <v>146</v>
+      </c>
+      <c r="C144" s="3">
         <v>130</v>
       </c>
-      <c r="D144">
-        <v>450.59800000000001</v>
+      <c r="D144" s="3">
+        <v>450598</v>
       </c>
       <c r="G144" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3646,16 +3626,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
-      </c>
-      <c r="C145">
-        <v>1.623</v>
-      </c>
-      <c r="D145">
-        <v>450.49700000000001</v>
+        <v>147</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1623</v>
+      </c>
+      <c r="D145" s="3">
+        <v>450497</v>
       </c>
       <c r="G145" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3663,13 +3643,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
-      </c>
-      <c r="C146">
+        <v>148</v>
+      </c>
+      <c r="C146" s="3">
         <v>513</v>
       </c>
-      <c r="D146">
-        <v>450.16699999999997</v>
+      <c r="D146" s="3">
+        <v>450167</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3677,13 +3657,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
-      </c>
-      <c r="C147">
+        <v>149</v>
+      </c>
+      <c r="C147" s="3">
         <v>652</v>
       </c>
-      <c r="D147">
-        <v>449.59</v>
+      <c r="D147" s="3">
+        <v>449590</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3691,16 +3671,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148">
+        <v>150</v>
+      </c>
+      <c r="C148" s="3">
         <v>46</v>
       </c>
-      <c r="D148">
-        <v>449.13</v>
+      <c r="D148" s="3">
+        <v>449130</v>
       </c>
       <c r="G148" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3708,16 +3688,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
-      </c>
-      <c r="C149">
+        <v>151</v>
+      </c>
+      <c r="C149" s="3">
         <v>689</v>
       </c>
-      <c r="D149">
-        <v>447.48099999999999</v>
+      <c r="D149" s="3">
+        <v>447481</v>
       </c>
       <c r="G149" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3725,16 +3705,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
-      </c>
-      <c r="C150">
-        <v>2.3980000000000001</v>
-      </c>
-      <c r="D150">
-        <v>447.197</v>
+        <v>152</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2398</v>
+      </c>
+      <c r="D150" s="3">
+        <v>447197</v>
       </c>
       <c r="G150" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3742,16 +3722,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
-      </c>
-      <c r="C151">
+        <v>153</v>
+      </c>
+      <c r="C151" s="3">
         <v>103</v>
       </c>
-      <c r="D151">
-        <v>447.07100000000003</v>
+      <c r="D151" s="3">
+        <v>447071</v>
       </c>
       <c r="G151" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3759,13 +3739,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
-      </c>
-      <c r="C152">
+        <v>154</v>
+      </c>
+      <c r="C152" s="3">
         <v>21</v>
       </c>
-      <c r="D152">
-        <v>446.72500000000002</v>
+      <c r="D152" s="3">
+        <v>446725</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3773,16 +3753,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
-      </c>
-      <c r="C153">
+        <v>155</v>
+      </c>
+      <c r="C153" s="3">
         <v>919</v>
       </c>
-      <c r="D153">
-        <v>444.99700000000001</v>
+      <c r="D153" s="3">
+        <v>444997</v>
       </c>
       <c r="G153" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3790,16 +3770,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154">
+        <v>156</v>
+      </c>
+      <c r="C154" s="3">
         <v>220</v>
       </c>
-      <c r="D154">
-        <v>444.28</v>
+      <c r="D154" s="3">
+        <v>444280</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3807,16 +3787,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
-      </c>
-      <c r="C155">
+        <v>157</v>
+      </c>
+      <c r="C155" s="3">
         <v>44</v>
       </c>
-      <c r="D155">
-        <v>443.97</v>
+      <c r="D155" s="3">
+        <v>443970</v>
       </c>
       <c r="G155" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3824,16 +3804,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
-      </c>
-      <c r="C156">
+        <v>158</v>
+      </c>
+      <c r="C156" s="3">
         <v>446</v>
       </c>
-      <c r="D156">
-        <v>443.96499999999997</v>
+      <c r="D156" s="3">
+        <v>443965</v>
       </c>
       <c r="G156" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3841,16 +3821,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157">
+        <v>159</v>
+      </c>
+      <c r="C157" s="3">
         <v>273</v>
       </c>
-      <c r="D157">
-        <v>442.24799999999999</v>
+      <c r="D157" s="3">
+        <v>442248</v>
       </c>
       <c r="G157" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3858,16 +3838,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158">
+        <v>160</v>
+      </c>
+      <c r="C158" s="3">
         <v>811</v>
       </c>
-      <c r="D158">
-        <v>441.803</v>
+      <c r="D158" s="3">
+        <v>441803</v>
       </c>
       <c r="G158" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3875,16 +3855,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159">
+        <v>161</v>
+      </c>
+      <c r="C159" s="3">
         <v>359</v>
       </c>
-      <c r="D159">
-        <v>441.72500000000002</v>
+      <c r="D159" s="3">
+        <v>441725</v>
       </c>
       <c r="G159" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3892,13 +3872,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
-      </c>
-      <c r="C160">
+        <v>162</v>
+      </c>
+      <c r="C160" s="3">
         <v>87</v>
       </c>
-      <c r="D160">
-        <v>441.54399999999998</v>
+      <c r="D160" s="3">
+        <v>441544</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3906,16 +3886,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161">
+        <v>163</v>
+      </c>
+      <c r="C161" s="3">
         <v>262</v>
       </c>
-      <c r="D161">
-        <v>440.541</v>
+      <c r="D161" s="3">
+        <v>440541</v>
       </c>
       <c r="G161" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3923,16 +3903,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C162">
+        <v>164</v>
+      </c>
+      <c r="C162" s="3">
         <v>20</v>
       </c>
-      <c r="D162">
-        <v>440.28399999999999</v>
+      <c r="D162" s="3">
+        <v>440284</v>
       </c>
       <c r="G162" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3940,16 +3920,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163">
+        <v>165</v>
+      </c>
+      <c r="C163" s="3">
         <v>503</v>
       </c>
-      <c r="D163">
-        <v>439.59500000000003</v>
+      <c r="D163" s="3">
+        <v>439595</v>
       </c>
       <c r="G163" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3957,16 +3937,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
-      </c>
-      <c r="C164">
+        <v>166</v>
+      </c>
+      <c r="C164" s="3">
         <v>19</v>
       </c>
-      <c r="D164">
-        <v>439.495</v>
+      <c r="D164" s="3">
+        <v>439495</v>
       </c>
       <c r="G164" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3974,13 +3954,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
-      </c>
-      <c r="C165">
+        <v>167</v>
+      </c>
+      <c r="C165" s="3">
         <v>415</v>
       </c>
-      <c r="D165">
-        <v>436.762</v>
+      <c r="D165" s="3">
+        <v>436762</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3988,13 +3968,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166">
+        <v>168</v>
+      </c>
+      <c r="C166" s="3">
         <v>67</v>
       </c>
-      <c r="D166">
-        <v>436.06299999999999</v>
+      <c r="D166" s="3">
+        <v>436063</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4002,13 +3982,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167">
+        <v>169</v>
+      </c>
+      <c r="C167" s="3">
         <v>69</v>
       </c>
-      <c r="D167">
-        <v>435.92</v>
+      <c r="D167" s="3">
+        <v>435920</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4016,13 +3996,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168">
+        <v>170</v>
+      </c>
+      <c r="C168" s="3">
         <v>189</v>
       </c>
-      <c r="D168">
-        <v>435.21</v>
+      <c r="D168" s="3">
+        <v>435210</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4030,16 +4010,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169">
+        <v>171</v>
+      </c>
+      <c r="C169" s="3">
         <v>292</v>
       </c>
-      <c r="D169">
-        <v>434.71199999999999</v>
+      <c r="D169" s="3">
+        <v>434712</v>
       </c>
       <c r="G169" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4047,16 +4027,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
-      </c>
-      <c r="C170">
+        <v>172</v>
+      </c>
+      <c r="C170" s="3">
         <v>866</v>
       </c>
-      <c r="D170">
-        <v>431.161</v>
+      <c r="D170" s="3">
+        <v>431161</v>
       </c>
       <c r="G170" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4064,16 +4044,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
-      </c>
-      <c r="C171">
+        <v>173</v>
+      </c>
+      <c r="C171" s="3">
         <v>941</v>
       </c>
-      <c r="D171">
-        <v>431.13799999999998</v>
+      <c r="D171" s="3">
+        <v>431138</v>
       </c>
       <c r="G171" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4081,13 +4061,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
-      </c>
-      <c r="C172">
+        <v>174</v>
+      </c>
+      <c r="C172" s="3">
         <v>54</v>
       </c>
-      <c r="D172">
-        <v>431.017</v>
+      <c r="D172" s="3">
+        <v>431017</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4095,16 +4075,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
-      </c>
-      <c r="C173">
+        <v>175</v>
+      </c>
+      <c r="C173" s="3">
         <v>433</v>
       </c>
-      <c r="D173">
-        <v>430.529</v>
+      <c r="D173" s="3">
+        <v>430529</v>
       </c>
       <c r="G173" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4112,16 +4092,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174">
+        <v>176</v>
+      </c>
+      <c r="C174" s="3">
         <v>422</v>
       </c>
-      <c r="D174">
-        <v>430.33600000000001</v>
+      <c r="D174" s="3">
+        <v>430336</v>
       </c>
       <c r="G174" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4129,16 +4109,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
-      </c>
-      <c r="C175">
+        <v>177</v>
+      </c>
+      <c r="C175" s="3">
         <v>258</v>
       </c>
-      <c r="D175">
-        <v>429.642</v>
+      <c r="D175" s="3">
+        <v>429642</v>
       </c>
       <c r="G175" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4146,16 +4126,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
-      </c>
-      <c r="C176">
+        <v>178</v>
+      </c>
+      <c r="C176" s="3">
         <v>770</v>
       </c>
-      <c r="D176">
-        <v>429.14100000000002</v>
+      <c r="D176" s="3">
+        <v>429141</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4163,16 +4143,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
-      </c>
-      <c r="C177">
+        <v>179</v>
+      </c>
+      <c r="C177" s="3">
         <v>674</v>
       </c>
-      <c r="D177">
-        <v>428.99799999999999</v>
+      <c r="D177" s="3">
+        <v>428998</v>
       </c>
       <c r="G177" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4180,16 +4160,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>130</v>
-      </c>
-      <c r="C178">
+        <v>123</v>
+      </c>
+      <c r="C178" s="3">
         <v>298</v>
       </c>
-      <c r="D178">
-        <v>426.99</v>
+      <c r="D178" s="3">
+        <v>426990</v>
       </c>
       <c r="G178" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4197,13 +4177,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
-      </c>
-      <c r="C179">
+        <v>180</v>
+      </c>
+      <c r="C179" s="3">
         <v>57</v>
       </c>
-      <c r="D179">
-        <v>425.56599999999997</v>
+      <c r="D179" s="3">
+        <v>425566</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4211,16 +4191,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
-      </c>
-      <c r="C180">
+        <v>181</v>
+      </c>
+      <c r="C180" s="3">
         <v>94</v>
       </c>
-      <c r="D180">
-        <v>422.77199999999999</v>
+      <c r="D180" s="3">
+        <v>422772</v>
       </c>
       <c r="G180" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4228,13 +4208,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
-      </c>
-      <c r="C181">
+        <v>182</v>
+      </c>
+      <c r="C181" s="3">
         <v>72</v>
       </c>
-      <c r="D181">
-        <v>419.28399999999999</v>
+      <c r="D181" s="3">
+        <v>419284</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4242,16 +4222,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
-      </c>
-      <c r="C182">
+        <v>183</v>
+      </c>
+      <c r="C182" s="3">
         <v>795</v>
       </c>
-      <c r="D182">
-        <v>418.94400000000002</v>
+      <c r="D182" s="3">
+        <v>418944</v>
       </c>
       <c r="G182" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4259,13 +4239,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
-      </c>
-      <c r="C183">
+        <v>184</v>
+      </c>
+      <c r="C183" s="3">
         <v>30</v>
       </c>
-      <c r="D183">
-        <v>417.22</v>
+      <c r="D183" s="3">
+        <v>417220</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4273,16 +4253,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
-      </c>
-      <c r="C184">
-        <v>1.407</v>
-      </c>
-      <c r="D184">
-        <v>414.03899999999999</v>
+        <v>185</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1407</v>
+      </c>
+      <c r="D184" s="3">
+        <v>414039</v>
       </c>
       <c r="G184" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4290,16 +4270,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
-      </c>
-      <c r="C185">
+        <v>186</v>
+      </c>
+      <c r="C185" s="3">
         <v>541</v>
       </c>
-      <c r="D185">
-        <v>413.11900000000003</v>
+      <c r="D185" s="3">
+        <v>413119</v>
       </c>
       <c r="G185" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4307,16 +4287,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
-      </c>
-      <c r="C186">
+        <v>187</v>
+      </c>
+      <c r="C186" s="3">
         <v>968</v>
       </c>
-      <c r="D186">
-        <v>410.28100000000001</v>
+      <c r="D186" s="3">
+        <v>410281</v>
       </c>
       <c r="G186" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4324,13 +4304,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
-      </c>
-      <c r="C187">
+        <v>188</v>
+      </c>
+      <c r="C187" s="3">
         <v>26</v>
       </c>
-      <c r="D187">
-        <v>408.45299999999997</v>
+      <c r="D187" s="3">
+        <v>408453</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4338,16 +4318,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
-      </c>
-      <c r="C188">
+        <v>189</v>
+      </c>
+      <c r="C188" s="3">
         <v>294</v>
       </c>
-      <c r="D188">
-        <v>401.596</v>
+      <c r="D188" s="3">
+        <v>401596</v>
       </c>
       <c r="G188" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4355,13 +4335,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>197</v>
-      </c>
-      <c r="C189">
+        <v>190</v>
+      </c>
+      <c r="C189" s="3">
         <v>119</v>
       </c>
-      <c r="D189">
-        <v>400.55900000000003</v>
+      <c r="D189" s="3">
+        <v>400559</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4369,13 +4349,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>198</v>
-      </c>
-      <c r="C190">
+        <v>191</v>
+      </c>
+      <c r="C190" s="3">
         <v>37</v>
       </c>
-      <c r="D190">
-        <v>388.584</v>
+      <c r="D190" s="3">
+        <v>388584</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4383,16 +4363,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
-      </c>
-      <c r="C191">
+        <v>192</v>
+      </c>
+      <c r="C191" s="3">
         <v>259</v>
       </c>
-      <c r="D191">
-        <v>387.31099999999998</v>
+      <c r="D191" s="3">
+        <v>387311</v>
       </c>
       <c r="G191" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4400,16 +4380,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>200</v>
-      </c>
-      <c r="C192">
+        <v>193</v>
+      </c>
+      <c r="C192" s="3">
         <v>725</v>
       </c>
-      <c r="D192">
-        <v>387.11200000000002</v>
+      <c r="D192" s="3">
+        <v>387112</v>
       </c>
       <c r="G192" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4417,13 +4397,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
-      </c>
-      <c r="C193">
+        <v>194</v>
+      </c>
+      <c r="C193" s="3">
         <v>165</v>
       </c>
-      <c r="D193">
-        <v>375.97899999999998</v>
+      <c r="D193" s="3">
+        <v>375979</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4431,16 +4411,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>202</v>
-      </c>
-      <c r="C194">
-        <v>1.365</v>
-      </c>
-      <c r="D194">
-        <v>372.71699999999998</v>
+        <v>195</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1365</v>
+      </c>
+      <c r="D194" s="3">
+        <v>372717</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4448,16 +4428,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
-      </c>
-      <c r="C195">
+        <v>196</v>
+      </c>
+      <c r="C195" s="3">
         <v>346</v>
       </c>
-      <c r="D195">
-        <v>370.85599999999999</v>
+      <c r="D195" s="3">
+        <v>370856</v>
       </c>
       <c r="G195" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4465,16 +4445,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>204</v>
-      </c>
-      <c r="C196">
+        <v>197</v>
+      </c>
+      <c r="C196" s="3">
         <v>349</v>
       </c>
-      <c r="D196">
-        <v>369.62099999999998</v>
+      <c r="D196" s="3">
+        <v>369621</v>
       </c>
       <c r="G196" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4482,16 +4462,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197">
+        <v>198</v>
+      </c>
+      <c r="C197" s="3">
         <v>495</v>
       </c>
-      <c r="D197">
-        <v>358.298</v>
+      <c r="D197" s="3">
+        <v>358298</v>
       </c>
       <c r="G197" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4499,16 +4479,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
-      </c>
-      <c r="C198">
+        <v>199</v>
+      </c>
+      <c r="C198" s="3">
         <v>23</v>
       </c>
-      <c r="D198">
-        <v>357.44900000000001</v>
+      <c r="D198" s="3">
+        <v>357449</v>
       </c>
       <c r="G198" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4516,16 +4496,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
-      </c>
-      <c r="C199">
+        <v>200</v>
+      </c>
+      <c r="C199" s="3">
         <v>624</v>
       </c>
-      <c r="D199">
-        <v>357.22399999999999</v>
+      <c r="D199" s="3">
+        <v>357224</v>
       </c>
       <c r="G199" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4533,16 +4513,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
-      </c>
-      <c r="C200">
+        <v>201</v>
+      </c>
+      <c r="C200" s="3">
         <v>10</v>
       </c>
-      <c r="D200">
-        <v>355.846</v>
+      <c r="D200" s="3">
+        <v>355846</v>
       </c>
       <c r="G200" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4550,16 +4530,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
-      </c>
-      <c r="C201">
+        <v>202</v>
+      </c>
+      <c r="C201" s="3">
         <v>472</v>
       </c>
-      <c r="D201">
-        <v>355.31299999999999</v>
+      <c r="D201" s="3">
+        <v>355313</v>
       </c>
       <c r="G201" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4567,16 +4547,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202">
+        <v>203</v>
+      </c>
+      <c r="C202" s="3">
         <v>329</v>
       </c>
-      <c r="D202">
-        <v>355.04700000000003</v>
+      <c r="D202" s="3">
+        <v>355047</v>
       </c>
       <c r="G202" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4584,13 +4564,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
-      </c>
-      <c r="C203">
+        <v>204</v>
+      </c>
+      <c r="C203" s="3">
         <v>523</v>
       </c>
-      <c r="D203">
-        <v>355.00799999999998</v>
+      <c r="D203" s="3">
+        <v>355008</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4598,16 +4578,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
-      </c>
-      <c r="C204">
-        <v>1.843</v>
-      </c>
-      <c r="D204">
-        <v>353.91</v>
+        <v>205</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1843</v>
+      </c>
+      <c r="D204" s="3">
+        <v>353910</v>
       </c>
       <c r="G204" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4615,16 +4595,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
-      </c>
-      <c r="C205">
+        <v>206</v>
+      </c>
+      <c r="C205" s="3">
         <v>28</v>
       </c>
-      <c r="D205">
-        <v>353.41199999999998</v>
+      <c r="D205" s="3">
+        <v>353412</v>
       </c>
       <c r="G205" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4632,16 +4612,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
-      </c>
-      <c r="C206">
+        <v>207</v>
+      </c>
+      <c r="C206" s="3">
         <v>139</v>
       </c>
-      <c r="D206">
-        <v>353.005</v>
+      <c r="D206" s="3">
+        <v>353005</v>
       </c>
       <c r="G206" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4649,13 +4629,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
-      </c>
-      <c r="C207">
+        <v>208</v>
+      </c>
+      <c r="C207" s="3">
         <v>452</v>
       </c>
-      <c r="D207">
-        <v>345.74900000000002</v>
+      <c r="D207" s="3">
+        <v>345749</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4663,13 +4643,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>216</v>
-      </c>
-      <c r="C208">
+        <v>209</v>
+      </c>
+      <c r="C208" s="3">
         <v>61</v>
       </c>
-      <c r="D208">
-        <v>342.7</v>
+      <c r="D208" s="3">
+        <v>342700</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -4677,13 +4657,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
-      </c>
-      <c r="C209">
+        <v>210</v>
+      </c>
+      <c r="C209" s="3">
         <v>185</v>
       </c>
-      <c r="D209">
-        <v>342.60899999999998</v>
+      <c r="D209" s="3">
+        <v>342609</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -4691,13 +4671,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
-      </c>
-      <c r="C210">
+        <v>211</v>
+      </c>
+      <c r="C210" s="3">
         <v>63</v>
       </c>
-      <c r="D210">
-        <v>340.32600000000002</v>
+      <c r="D210" s="3">
+        <v>340326</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -4705,13 +4685,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
-      </c>
-      <c r="C211">
+        <v>212</v>
+      </c>
+      <c r="C211" s="3">
         <v>266</v>
       </c>
-      <c r="D211">
-        <v>340.08499999999998</v>
+      <c r="D211" s="3">
+        <v>340085</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -4719,13 +4699,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
-      </c>
-      <c r="C212">
+        <v>213</v>
+      </c>
+      <c r="C212" s="3">
         <v>13</v>
       </c>
-      <c r="D212">
-        <v>339.36700000000002</v>
+      <c r="D212" s="3">
+        <v>339367</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -4733,13 +4713,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
-      </c>
-      <c r="C213">
+        <v>214</v>
+      </c>
+      <c r="C213" s="3">
         <v>59</v>
       </c>
-      <c r="D213">
-        <v>339.21699999999998</v>
+      <c r="D213" s="3">
+        <v>339217</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -4747,16 +4727,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
-      </c>
-      <c r="C214">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="D214">
-        <v>322.12099999999998</v>
+        <v>215</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1346</v>
+      </c>
+      <c r="D214" s="3">
+        <v>322121</v>
       </c>
       <c r="G214" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -4764,16 +4744,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>223</v>
-      </c>
-      <c r="C215">
+        <v>216</v>
+      </c>
+      <c r="C215" s="3">
         <v>35</v>
       </c>
-      <c r="D215">
-        <v>322.03399999999999</v>
+      <c r="D215" s="3">
+        <v>322034</v>
       </c>
       <c r="G215" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -4781,13 +4761,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>224</v>
-      </c>
-      <c r="C216">
+        <v>217</v>
+      </c>
+      <c r="C216" s="3">
         <v>45</v>
       </c>
-      <c r="D216">
-        <v>303.72899999999998</v>
+      <c r="D216" s="3">
+        <v>303729</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -4795,16 +4775,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>225</v>
-      </c>
-      <c r="C217">
+        <v>218</v>
+      </c>
+      <c r="C217" s="3">
         <v>540</v>
       </c>
-      <c r="D217">
-        <v>303.613</v>
+      <c r="D217" s="3">
+        <v>303613</v>
       </c>
       <c r="G217" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4812,16 +4792,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>226</v>
-      </c>
-      <c r="C218">
+        <v>219</v>
+      </c>
+      <c r="C218" s="3">
         <v>15</v>
       </c>
-      <c r="D218">
-        <v>298.947</v>
+      <c r="D218" s="3">
+        <v>298947</v>
       </c>
       <c r="G218" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -4829,13 +4809,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
-      </c>
-      <c r="C219">
+        <v>220</v>
+      </c>
+      <c r="C219" s="3">
         <v>263</v>
       </c>
-      <c r="D219">
-        <v>276.60899999999998</v>
+      <c r="D219" s="3">
+        <v>276609</v>
       </c>
     </row>
   </sheetData>
